--- a/Random Excel File/Random Excel File/bin/Debug/RandomExcelFolder/RandomExcelFile.xlsx
+++ b/Random Excel File/Random Excel File/bin/Debug/RandomExcelFolder/RandomExcelFile.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kurde\Desktop\C#dotNET Training\RandomExcelValues\Random Excel File\Random Excel File\bin\Debug\RandomExcelFolder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{67E557C7-35A3-4B42-BD58-DFD9500CCCD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CE69A0EB-CD99-4A25-8408-A582C5B3283C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33075" yWindow="-105" windowWidth="14520" windowHeight="13395" xr2:uid="{7F15EA75-21FD-43FB-903F-A6FC7EBB4CB6}"/>
+    <workbookView xWindow="33075" yWindow="-105" windowWidth="14520" windowHeight="13395" xr2:uid="{5EB669CB-894C-464D-95ED-948DBB94037C}"/>
   </bookViews>
   <sheets>
     <sheet name="RandomExcelFile" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Name</t>
   </si>
@@ -43,13 +43,78 @@
   </si>
   <si>
     <t>Unit price</t>
+  </si>
+  <si>
+    <t>Name 0</t>
+  </si>
+  <si>
+    <t>Name 1</t>
+  </si>
+  <si>
+    <t>Name 2</t>
+  </si>
+  <si>
+    <t>Name 3</t>
+  </si>
+  <si>
+    <t>Name 4</t>
+  </si>
+  <si>
+    <t>Name 5</t>
+  </si>
+  <si>
+    <t>Name 6</t>
+  </si>
+  <si>
+    <t>Name 7</t>
+  </si>
+  <si>
+    <t>Name 8</t>
+  </si>
+  <si>
+    <t>Name 9</t>
+  </si>
+  <si>
+    <t>Name 10</t>
+  </si>
+  <si>
+    <t>Name 11</t>
+  </si>
+  <si>
+    <t>Name 12</t>
+  </si>
+  <si>
+    <t>Name 13</t>
+  </si>
+  <si>
+    <t>Name 14</t>
+  </si>
+  <si>
+    <t>Name 15</t>
+  </si>
+  <si>
+    <t>Name 16</t>
+  </si>
+  <si>
+    <t>Name 17</t>
+  </si>
+  <si>
+    <t>Name 18</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <b/>
       <sz val="11"/>
@@ -80,11 +145,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normalny" xfId="0" builtinId="0" customBuiltin="1"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -395,31 +461,126 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{519CAFB8-6E76-49E0-B23A-9B9464385769}">
-  <dimension ref="A1:F1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2DECFE0-083B-49EC-8919-E716ACCF857F}">
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Random Excel File/Random Excel File/bin/Debug/RandomExcelFolder/RandomExcelFile.xlsx
+++ b/Random Excel File/Random Excel File/bin/Debug/RandomExcelFolder/RandomExcelFile.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kurde\Desktop\C#dotNET Training\RandomExcelValues\Random Excel File\Random Excel File\bin\Debug\RandomExcelFolder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CE69A0EB-CD99-4A25-8408-A582C5B3283C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C3C054DC-203E-4226-B08C-83601DFDC3C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33075" yWindow="-105" windowWidth="14520" windowHeight="13395" xr2:uid="{5EB669CB-894C-464D-95ED-948DBB94037C}"/>
+    <workbookView xWindow="33075" yWindow="-105" windowWidth="14520" windowHeight="13395" xr2:uid="{1DB8E687-09CC-4B47-842F-72D6AA2FDDEE}"/>
   </bookViews>
   <sheets>
     <sheet name="RandomExcelFile" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+  <si>
+    <t>ID</t>
+  </si>
   <si>
     <t>Name</t>
   </si>
@@ -33,18 +36,15 @@
     <t>Surname</t>
   </si>
   <si>
-    <t>ID</t>
-  </si>
-  <si>
     <t>Amount</t>
   </si>
   <si>
+    <t>Unit price</t>
+  </si>
+  <si>
     <t>Cost</t>
   </si>
   <si>
-    <t>Unit price</t>
-  </si>
-  <si>
     <t>Name 0</t>
   </si>
   <si>
@@ -100,6 +100,63 @@
   </si>
   <si>
     <t>Name 18</t>
+  </si>
+  <si>
+    <t>Surname 0</t>
+  </si>
+  <si>
+    <t>Surname 1</t>
+  </si>
+  <si>
+    <t>Surname 2</t>
+  </si>
+  <si>
+    <t>Surname 3</t>
+  </si>
+  <si>
+    <t>Surname 4</t>
+  </si>
+  <si>
+    <t>Surname 5</t>
+  </si>
+  <si>
+    <t>Surname 6</t>
+  </si>
+  <si>
+    <t>Surname 7</t>
+  </si>
+  <si>
+    <t>Surname 8</t>
+  </si>
+  <si>
+    <t>Surname 9</t>
+  </si>
+  <si>
+    <t>Surname 10</t>
+  </si>
+  <si>
+    <t>Surname 11</t>
+  </si>
+  <si>
+    <t>Surname 12</t>
+  </si>
+  <si>
+    <t>Surname 13</t>
+  </si>
+  <si>
+    <t>Surname 14</t>
+  </si>
+  <si>
+    <t>Surname 15</t>
+  </si>
+  <si>
+    <t>Surname 16</t>
+  </si>
+  <si>
+    <t>Surname 17</t>
+  </si>
+  <si>
+    <t>Surname 18</t>
   </si>
 </sst>
 </file>
@@ -461,12 +518,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2DECFE0-083B-49EC-8919-E716ACCF857F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0AD6509-141D-46CD-8C7E-261D62AFC468}">
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -489,98 +554,383 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
         <v>6</v>
       </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2">
+        <v>294</v>
+      </c>
+      <c r="E2">
+        <v>12.98</v>
+      </c>
+      <c r="F2">
+        <v>3816.1200000000003</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>7</v>
       </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3">
+        <v>204</v>
+      </c>
+      <c r="E3">
+        <v>6.97</v>
+      </c>
+      <c r="F3">
+        <v>1421.8799999999999</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
         <v>8</v>
       </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4">
+        <v>319</v>
+      </c>
+      <c r="E4">
+        <v>14.61</v>
+      </c>
+      <c r="F4">
+        <v>4660.59</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
         <v>9</v>
       </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5">
+        <v>485</v>
+      </c>
+      <c r="E5">
+        <v>25.69</v>
+      </c>
+      <c r="F5">
+        <v>12459.650000000001</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
         <v>10</v>
       </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6">
+        <v>807</v>
+      </c>
+      <c r="E6">
+        <v>47.17</v>
+      </c>
+      <c r="F6">
+        <v>38066.19</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
         <v>11</v>
       </c>
+      <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7">
+        <v>845</v>
+      </c>
+      <c r="E7">
+        <v>49.72</v>
+      </c>
+      <c r="F7">
+        <v>42013.4</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
         <v>12</v>
       </c>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8">
+        <v>747</v>
+      </c>
+      <c r="E8">
+        <v>43.17</v>
+      </c>
+      <c r="F8">
+        <v>32247.99</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
         <v>13</v>
       </c>
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9">
+        <v>437</v>
+      </c>
+      <c r="E9">
+        <v>22.49</v>
+      </c>
+      <c r="F9">
+        <v>9828.1299999999992</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
         <v>14</v>
       </c>
+      <c r="C10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10">
+        <v>602</v>
+      </c>
+      <c r="E10">
+        <v>33.49</v>
+      </c>
+      <c r="F10">
+        <v>20160.98</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
         <v>15</v>
       </c>
+      <c r="C11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11">
+        <v>962</v>
+      </c>
+      <c r="E11">
+        <v>57.5</v>
+      </c>
+      <c r="F11">
+        <v>55315</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
         <v>16</v>
       </c>
+      <c r="C12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12">
+        <v>519</v>
+      </c>
+      <c r="E12">
+        <v>27.98</v>
+      </c>
+      <c r="F12">
+        <v>14521.62</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
         <v>17</v>
       </c>
+      <c r="C13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13">
+        <v>466</v>
+      </c>
+      <c r="E13">
+        <v>24.45</v>
+      </c>
+      <c r="F13">
+        <v>11393.699999999999</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
         <v>18</v>
       </c>
+      <c r="C14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14">
+        <v>813</v>
+      </c>
+      <c r="E14">
+        <v>47.54</v>
+      </c>
+      <c r="F14">
+        <v>38650.019999999997</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
         <v>19</v>
       </c>
+      <c r="C15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15">
+        <v>554</v>
+      </c>
+      <c r="E15">
+        <v>30.32</v>
+      </c>
+      <c r="F15">
+        <v>16797.28</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="C16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16">
+        <v>433</v>
+      </c>
+      <c r="E16">
+        <v>22.25</v>
+      </c>
+      <c r="F16">
+        <v>9634.25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="C17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17">
+        <v>698</v>
+      </c>
+      <c r="E17">
+        <v>39.93</v>
+      </c>
+      <c r="F17">
+        <v>27871.14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="C18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18">
+        <v>910</v>
+      </c>
+      <c r="E18">
+        <v>54.06</v>
+      </c>
+      <c r="F18">
+        <v>49194.6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="C19" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19">
+        <v>489</v>
+      </c>
+      <c r="E19">
+        <v>25.94</v>
+      </c>
+      <c r="F19">
+        <v>12684.66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
         <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20">
+        <v>736</v>
+      </c>
+      <c r="E20">
+        <v>42.45</v>
+      </c>
+      <c r="F20">
+        <v>31243.200000000001</v>
       </c>
     </row>
   </sheetData>

--- a/Random Excel File/Random Excel File/bin/Debug/RandomExcelFolder/RandomExcelFile.xlsx
+++ b/Random Excel File/Random Excel File/bin/Debug/RandomExcelFolder/RandomExcelFile.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kurde\Desktop\C#dotNET Training\RandomExcelValues\Random Excel File\Random Excel File\bin\Debug\RandomExcelFolder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C3C054DC-203E-4226-B08C-83601DFDC3C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{59D3DF5F-C3CB-4617-A753-6AA0D0ACC222}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33075" yWindow="-105" windowWidth="14520" windowHeight="13395" xr2:uid="{1DB8E687-09CC-4B47-842F-72D6AA2FDDEE}"/>
+    <workbookView xWindow="32385" yWindow="-510" windowWidth="14520" windowHeight="13395" xr2:uid="{DA8DB302-2541-4C35-BF49-35711DA8A1FF}"/>
   </bookViews>
   <sheets>
     <sheet name="RandomExcelFile" sheetId="1" r:id="rId1"/>
@@ -518,7 +518,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0AD6509-141D-46CD-8C7E-261D62AFC468}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776ACE76-BDD1-4ABA-9333-7EDA14048A9B}">
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -564,13 +564,13 @@
         <v>25</v>
       </c>
       <c r="D2">
-        <v>294</v>
+        <v>941</v>
       </c>
       <c r="E2">
-        <v>12.98</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="F2">
-        <v>3816.1200000000003</v>
+        <v>16561.600000000002</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -584,13 +584,13 @@
         <v>26</v>
       </c>
       <c r="D3">
-        <v>204</v>
+        <v>268</v>
       </c>
       <c r="E3">
-        <v>6.97</v>
+        <v>52.91</v>
       </c>
       <c r="F3">
-        <v>1421.8799999999999</v>
+        <v>14179.88</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -604,13 +604,13 @@
         <v>27</v>
       </c>
       <c r="D4">
-        <v>319</v>
+        <v>940</v>
       </c>
       <c r="E4">
-        <v>14.61</v>
+        <v>7.05</v>
       </c>
       <c r="F4">
-        <v>4660.59</v>
+        <v>6627</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -624,13 +624,13 @@
         <v>28</v>
       </c>
       <c r="D5">
-        <v>485</v>
+        <v>321</v>
       </c>
       <c r="E5">
-        <v>25.69</v>
+        <v>39.659999999999997</v>
       </c>
       <c r="F5">
-        <v>12459.650000000001</v>
+        <v>12730.859999999999</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -644,13 +644,13 @@
         <v>29</v>
       </c>
       <c r="D6">
-        <v>807</v>
+        <v>970</v>
       </c>
       <c r="E6">
-        <v>47.17</v>
+        <v>11.44</v>
       </c>
       <c r="F6">
-        <v>38066.19</v>
+        <v>11096.8</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -664,13 +664,13 @@
         <v>30</v>
       </c>
       <c r="D7">
-        <v>845</v>
+        <v>439</v>
       </c>
       <c r="E7">
-        <v>49.72</v>
+        <v>21.59</v>
       </c>
       <c r="F7">
-        <v>42013.4</v>
+        <v>9478.01</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -684,13 +684,13 @@
         <v>31</v>
       </c>
       <c r="D8">
-        <v>747</v>
+        <v>678</v>
       </c>
       <c r="E8">
-        <v>43.17</v>
+        <v>48.68</v>
       </c>
       <c r="F8">
-        <v>32247.99</v>
+        <v>33005.040000000001</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -704,13 +704,13 @@
         <v>32</v>
       </c>
       <c r="D9">
-        <v>437</v>
+        <v>831</v>
       </c>
       <c r="E9">
-        <v>22.49</v>
+        <v>50.4</v>
       </c>
       <c r="F9">
-        <v>9828.1299999999992</v>
+        <v>41882.400000000001</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -724,13 +724,13 @@
         <v>33</v>
       </c>
       <c r="D10">
-        <v>602</v>
+        <v>462</v>
       </c>
       <c r="E10">
-        <v>33.49</v>
+        <v>22.95</v>
       </c>
       <c r="F10">
-        <v>20160.98</v>
+        <v>10602.9</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -744,13 +744,13 @@
         <v>34</v>
       </c>
       <c r="D11">
-        <v>962</v>
+        <v>541</v>
       </c>
       <c r="E11">
-        <v>57.5</v>
+        <v>23.46</v>
       </c>
       <c r="F11">
-        <v>55315</v>
+        <v>12691.86</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -764,13 +764,13 @@
         <v>35</v>
       </c>
       <c r="D12">
-        <v>519</v>
+        <v>624</v>
       </c>
       <c r="E12">
-        <v>27.98</v>
+        <v>22.2</v>
       </c>
       <c r="F12">
-        <v>14521.62</v>
+        <v>13852.8</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -784,13 +784,13 @@
         <v>36</v>
       </c>
       <c r="D13">
-        <v>466</v>
+        <v>847</v>
       </c>
       <c r="E13">
-        <v>24.45</v>
+        <v>19.32</v>
       </c>
       <c r="F13">
-        <v>11393.699999999999</v>
+        <v>16364.04</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -804,13 +804,13 @@
         <v>37</v>
       </c>
       <c r="D14">
-        <v>813</v>
+        <v>979</v>
       </c>
       <c r="E14">
-        <v>47.54</v>
+        <v>58.56</v>
       </c>
       <c r="F14">
-        <v>38650.019999999997</v>
+        <v>57330.240000000005</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -824,13 +824,13 @@
         <v>38</v>
       </c>
       <c r="D15">
-        <v>554</v>
+        <v>946</v>
       </c>
       <c r="E15">
-        <v>30.32</v>
+        <v>15.87</v>
       </c>
       <c r="F15">
-        <v>16797.28</v>
+        <v>15013.019999999999</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -844,13 +844,13 @@
         <v>39</v>
       </c>
       <c r="D16">
-        <v>433</v>
+        <v>302</v>
       </c>
       <c r="E16">
-        <v>22.25</v>
+        <v>25.47</v>
       </c>
       <c r="F16">
-        <v>9634.25</v>
+        <v>7691.94</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -864,13 +864,13 @@
         <v>40</v>
       </c>
       <c r="D17">
-        <v>698</v>
+        <v>407</v>
       </c>
       <c r="E17">
-        <v>39.93</v>
+        <v>20.02</v>
       </c>
       <c r="F17">
-        <v>27871.14</v>
+        <v>8148.1399999999994</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -884,13 +884,13 @@
         <v>41</v>
       </c>
       <c r="D18">
-        <v>910</v>
+        <v>694</v>
       </c>
       <c r="E18">
-        <v>54.06</v>
+        <v>23.18</v>
       </c>
       <c r="F18">
-        <v>49194.6</v>
+        <v>16086.92</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -904,13 +904,13 @@
         <v>42</v>
       </c>
       <c r="D19">
-        <v>489</v>
+        <v>683</v>
       </c>
       <c r="E19">
-        <v>25.94</v>
+        <v>34.090000000000003</v>
       </c>
       <c r="F19">
-        <v>12684.66</v>
+        <v>23283.47</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -924,13 +924,13 @@
         <v>43</v>
       </c>
       <c r="D20">
-        <v>736</v>
+        <v>476</v>
       </c>
       <c r="E20">
-        <v>42.45</v>
+        <v>51.06</v>
       </c>
       <c r="F20">
-        <v>31243.200000000001</v>
+        <v>24304.560000000001</v>
       </c>
     </row>
   </sheetData>
